--- a/data/trans_orig/CONS_ALER-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ALER-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en País Vasco</t>
+          <t>Consumo de medicamentos para la alergía o el asma en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en Andalucia</t>
+          <t>Consumo de medicamentos para la alergía o el asma en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en C.Valenciana</t>
+          <t>Consumo de medicamentos para la alergía o el asma en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_ALER-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ALER-Edad-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>748</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3222</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>612</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2907</t>
+          <t>2841</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>1756</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>4817</t>
+          <t>4947</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61281</t>
+          <t>75293</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59594</t>
+          <t>73753</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62197</t>
+          <t>76133</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61099</t>
+          <t>64797</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59586</t>
+          <t>63401</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61910</t>
+          <t>65630</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>122380</t>
+          <t>140089</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>120492</t>
+          <t>138176</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>123679</t>
+          <t>141367</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>98,77%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1840</t>
+          <t>1834</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>899</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3454</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2991</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1727</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4864</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3138</t>
+          <t>3168</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>6953</t>
+          <t>6883</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67325</t>
+          <t>73149</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>65711</t>
+          <t>71630</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68303</t>
+          <t>74084</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>98,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>59492</t>
+          <t>65202</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>57619</t>
+          <t>63652</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>60828</t>
+          <t>66321</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>126816</t>
+          <t>138351</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>124694</t>
+          <t>136148</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>128509</t>
+          <t>139863</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>96,73%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>97,79%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,17 +1421,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2551</t>
+          <t>2792</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>1519</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4333</t>
+          <t>4988</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3663</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2309</t>
+          <t>2412</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5685</t>
+          <t>5751</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6215</t>
+          <t>6516</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4308</t>
+          <t>4544</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>8802</t>
+          <t>8891</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,14%</t>
         </is>
       </c>
     </row>
@@ -1534,17 +1534,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92144</t>
+          <t>101168</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90362</t>
+          <t>98972</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93391</t>
+          <t>102441</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1554,12 +1554,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93842</t>
+          <t>106990</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91820</t>
+          <t>104964</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>95196</t>
+          <t>108303</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>96,64%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,17%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>185985</t>
+          <t>208159</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>183398</t>
+          <t>205784</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>187892</t>
+          <t>210131</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>97,88%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5337</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3595</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7685</t>
+          <t>7601</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8414</t>
+          <t>7910</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6121</t>
+          <t>5648</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11502</t>
+          <t>10839</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13751</t>
+          <t>13140</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10860</t>
+          <t>10513</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>17398</t>
+          <t>16084</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>5,41%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>134077</t>
+          <t>139548</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>131729</t>
+          <t>137177</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>135819</t>
+          <t>141208</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>129561</t>
+          <t>144634</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>126473</t>
+          <t>141705</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>131854</t>
+          <t>146896</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>263639</t>
+          <t>284181</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>259992</t>
+          <t>281237</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>266530</t>
+          <t>286808</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,46%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3598</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2140</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5633</t>
+          <t>5505</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5912</t>
+          <t>5903</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>4059</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>8356</t>
+          <t>8535</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>9510</t>
+          <t>9395</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>6921</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>12452</t>
+          <t>12927</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>123256</t>
+          <t>126090</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>121221</t>
+          <t>124077</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>124714</t>
+          <t>127445</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>141429</t>
+          <t>146012</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>138985</t>
+          <t>143380</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>143350</t>
+          <t>147856</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>264684</t>
+          <t>272103</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>261742</t>
+          <t>268571</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>267273</t>
+          <t>274375</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>96,53%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,47%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4658</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>2593</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6795</t>
+          <t>5848</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4575</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>2957</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6892</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>9232</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>6385</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>12368</t>
+          <t>10927</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>102946</t>
+          <t>100286</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>100809</t>
+          <t>98618</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>104572</t>
+          <t>101873</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>110333</t>
+          <t>111407</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>108016</t>
+          <t>109370</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>111815</t>
+          <t>112823</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>213280</t>
+          <t>211693</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>210144</t>
+          <t>209319</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>215424</t>
+          <t>213861</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>97,1%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1485</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4040</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4337</t>
+          <t>5182</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2835</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>6707</t>
+          <t>7403</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>6856</t>
+          <t>8164</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>4920</t>
+          <t>6068</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>9539</t>
+          <t>11137</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>5,03%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>93836</t>
+          <t>86241</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>92315</t>
+          <t>84620</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>94870</t>
+          <t>87425</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>129594</t>
+          <t>127130</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>127224</t>
+          <t>124909</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>131096</t>
+          <t>128779</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>223430</t>
+          <t>213371</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>220747</t>
+          <t>210398</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>225366</t>
+          <t>215467</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>97,26%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>22038</t>
+          <t>22098</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17958</t>
+          <t>18265</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>26082</t>
+          <t>26414</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>31286</t>
+          <t>31385</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>26540</t>
+          <t>26437</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>36773</t>
+          <t>36637</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>53324</t>
+          <t>53483</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>47313</t>
+          <t>47273</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>60407</t>
+          <t>59667</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>674865</t>
+          <t>701774</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>670821</t>
+          <t>697458</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>678945</t>
+          <t>705607</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>725349</t>
+          <t>766171</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>719862</t>
+          <t>760919</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>730095</t>
+          <t>771119</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1400214</t>
+          <t>1467946</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1393131</t>
+          <t>1461762</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1406225</t>
+          <t>1474156</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>96,89%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4740</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29743</t>
+          <t>30743</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>181</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16888</t>
+          <t>15661</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6790</t>
+          <t>7643</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>37271</t>
+          <t>35079</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>206493</t>
+          <t>205493</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>231496</t>
+          <t>231898</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>86,99%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>167465</t>
+          <t>168692</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>184178</t>
+          <t>184172</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,91%</t>
+          <t>99,9%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>383318</t>
+          <t>385510</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>413799</t>
+          <t>412946</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>98,18%</t>
         </is>
       </c>
     </row>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6607</t>
+          <t>6093</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27839</t>
+          <t>27756</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15097</t>
+          <t>15671</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>193731</t>
+          <t>196015</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>61,61%</t>
+          <t>62,34%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>27562</t>
+          <t>27058</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>252474</t>
+          <t>246495</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>45,33%</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>201529</t>
+          <t>201612</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>222761</t>
+          <t>223275</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,86%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>120697</t>
+          <t>118413</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>299331</t>
+          <t>298757</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>291322</t>
+          <t>297301</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>516234</t>
+          <t>516738</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>53,57%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>95,02%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7839</t>
+          <t>7841</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22546</t>
+          <t>23725</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13737</t>
+          <t>13668</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27392</t>
+          <t>28926</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>24756</t>
+          <t>24620</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>46569</t>
+          <t>45047</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>288223</t>
+          <t>287044</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>302930</t>
+          <t>302928</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>295221</t>
+          <t>293687</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>308876</t>
+          <t>308945</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>586812</t>
+          <t>588334</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>608625</t>
+          <t>608761</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,11%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29965</t>
+          <t>30959</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17043</t>
+          <t>17012</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>31478</t>
+          <t>31372</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>18902</t>
+          <t>19308</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>58276</t>
+          <t>58512</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,67%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>597199</t>
+          <t>596205</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>622680</t>
+          <t>623145</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>373324</t>
+          <t>373430</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>387759</t>
+          <t>387790</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>973690</t>
+          <t>973454</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1013064</t>
+          <t>1012658</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>98,13%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1434</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8901</t>
+          <t>9201</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10702</t>
+          <t>10770</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23382</t>
+          <t>22930</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>13968</t>
+          <t>13875</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>28146</t>
+          <t>27680</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>330228</t>
+          <t>329928</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>337695</t>
+          <t>337501</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>295512</t>
+          <t>295964</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>308192</t>
+          <t>308124</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>92,81%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>629878</t>
+          <t>630344</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>644056</t>
+          <t>644149</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>97,89%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2543</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10220</t>
+          <t>11055</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3246</t>
+          <t>2737</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>23606</t>
+          <t>24274</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>5398</t>
+          <t>6326</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>28234</t>
+          <t>29032</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,39%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>197864</t>
+          <t>197029</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>205541</t>
+          <t>205434</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>429036</t>
+          <t>428368</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>449396</t>
+          <t>449905</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>632493</t>
+          <t>631695</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>655329</t>
+          <t>654401</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>99,04%</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7077</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>5471</t>
+          <t>5351</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>13874</t>
+          <t>13741</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>7524</t>
+          <t>7301</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>17631</t>
+          <t>17535</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,56%</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>144208</t>
+          <t>144616</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>150089</t>
+          <t>150087</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>219399</t>
+          <t>219532</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>227802</t>
+          <t>227922</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>366927</t>
+          <t>367023</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>377034</t>
+          <t>377257</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>98,1%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>42196</t>
+          <t>45877</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>92100</t>
+          <t>95111</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>93606</t>
+          <t>92357</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>387848</t>
+          <t>381578</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>156701</t>
+          <t>156818</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>475281</t>
+          <t>454657</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>10,49%</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2009935</t>
+          <t>2006924</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2059839</t>
+          <t>2056158</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1843158</t>
+          <t>1849428</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2137400</t>
+          <t>2138649</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>82,62%</t>
+          <t>82,9%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3857760</t>
+          <t>3878384</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4176340</t>
+          <t>4176223</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_ALER-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ALER-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para la alergía o el asma en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10824</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3608</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25775</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5426</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1327</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15875</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1588</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>748</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3128</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1445</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2841</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>2,18%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0,92%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>4,29%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>16250</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1756</t>
+          <t>7461</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>4947</t>
+          <t>31156</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>6,76%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75293</t>
+          <t>230441</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73753</t>
+          <t>215490</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76133</t>
+          <t>237657</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>64797</t>
+          <t>214229</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>63401</t>
+          <t>203780</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65630</t>
+          <t>218328</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>204</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>140089</t>
+          <t>444670</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>138176</t>
+          <t>429764</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>141367</t>
+          <t>453459</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>98,38%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1834</t>
+          <t>13099</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>6543</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3353</t>
+          <t>24833</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2846</t>
+          <t>17864</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1727</t>
+          <t>10232</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>28807</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>30964</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3168</t>
+          <t>19566</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>6883</t>
+          <t>44535</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>8,17%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73149</t>
+          <t>248875</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71630</t>
+          <t>237141</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74084</t>
+          <t>255431</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>234</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>65202</t>
+          <t>265589</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>63652</t>
+          <t>254646</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>66321</t>
+          <t>273221</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>378</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>138351</t>
+          <t>514462</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>136148</t>
+          <t>500891</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>139863</t>
+          <t>525860</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>96,41%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2792</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>10131</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4988</t>
+          <t>28366</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3725</t>
+          <t>22077</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2412</t>
+          <t>15674</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>31613</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>44</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6516</t>
+          <t>39576</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4544</t>
+          <t>29126</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>8891</t>
+          <t>52610</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>101168</t>
+          <t>350818</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>98972</t>
+          <t>339952</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>102441</t>
+          <t>358187</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>92,3%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>464</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>106990</t>
+          <t>351308</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>104964</t>
+          <t>341772</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>108303</t>
+          <t>357711</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>762</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>208159</t>
+          <t>702127</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>205784</t>
+          <t>689093</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>210131</t>
+          <t>712577</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>96,07%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>18064</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>10751</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7601</t>
+          <t>28527</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7910</t>
+          <t>27557</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5648</t>
+          <t>20208</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10839</t>
+          <t>36091</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13140</t>
+          <t>45622</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10513</t>
+          <t>35515</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>16084</t>
+          <t>60448</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>6,99%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>373</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>139548</t>
+          <t>405877</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>137177</t>
+          <t>395414</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>141208</t>
+          <t>413190</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>620</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>144634</t>
+          <t>413735</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>141705</t>
+          <t>405201</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>146896</t>
+          <t>421084</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>993</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>284181</t>
+          <t>819612</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>281237</t>
+          <t>804786</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>286808</t>
+          <t>829719</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>93,01%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>95,9%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>5343</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>2103</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>17866</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>12058</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>25759</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>5903</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>4059</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>8535</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>3,89%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>2,67%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>5,62%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>9395</t>
+          <t>23209</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>16348</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>12927</t>
+          <t>32194</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>126090</t>
+          <t>362700</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>124077</t>
+          <t>356343</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>127445</t>
+          <t>365940</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>539</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>146012</t>
+          <t>342500</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>143380</t>
+          <t>334607</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>147856</t>
+          <t>348308</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>931</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>272103</t>
+          <t>705199</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>268571</t>
+          <t>696214</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>274375</t>
+          <t>712060</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>97,76%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4180</t>
+          <t>6417</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2593</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5848</t>
+          <t>12605</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>13515</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>8931</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>20297</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>19931</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>6385</t>
+          <t>13579</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>10927</t>
+          <t>27984</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,58%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>309</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>100286</t>
+          <t>224856</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>98618</t>
+          <t>218668</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>101873</t>
+          <t>228361</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>459</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>111407</t>
+          <t>256517</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>109370</t>
+          <t>249735</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>112823</t>
+          <t>261101</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>768</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>211693</t>
+          <t>481373</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>209319</t>
+          <t>473320</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>213861</t>
+          <t>487725</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>97,29%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3401</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7462</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2982</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1798</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>3,34%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5182</t>
+          <t>10152</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3533</t>
+          <t>6090</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>7403</t>
+          <t>15352</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>8164</t>
+          <t>13553</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>6068</t>
+          <t>8332</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>11137</t>
+          <t>19745</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>86241</t>
+          <t>161685</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>84620</t>
+          <t>157624</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>87425</t>
+          <t>163742</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>422</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>127130</t>
+          <t>246124</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>124909</t>
+          <t>240924</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>128779</t>
+          <t>250186</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,41%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>647</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>213371</t>
+          <t>407809</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>210398</t>
+          <t>401617</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>215467</t>
+          <t>413030</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>98,02%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>670</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>22098</t>
+          <t>74649</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18265</t>
+          <t>58127</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>26414</t>
+          <t>95961</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>31385</t>
+          <t>114456</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>26437</t>
+          <t>98189</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>36637</t>
+          <t>134531</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>220</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>53483</t>
+          <t>189105</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>47273</t>
+          <t>165722</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>59667</t>
+          <t>218913</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3947</t>
+          <t>1830</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>701774</t>
+          <t>1985251</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>697458</t>
+          <t>1963939</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>705607</t>
+          <t>2001773</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>2853</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>766171</t>
+          <t>2090003</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>760919</t>
+          <t>2069928</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>771119</t>
+          <t>2106270</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8241</t>
+          <t>4683</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1467946</t>
+          <t>4075253</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1461762</t>
+          <t>4045445</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1474156</t>
+          <t>4098636</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>96,11%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4903</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos para la alergía o el asma en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12876</t>
+          <t>13344</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4338</t>
+          <t>8674</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30743</t>
+          <t>20316</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3792</t>
+          <t>14812</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>9381</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15661</t>
+          <t>21526</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>45</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>16668</t>
+          <t>28156</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7643</t>
+          <t>20595</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>35079</t>
+          <t>37420</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>10,99%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>223360</t>
+          <t>156827</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>205493</t>
+          <t>149855</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>231898</t>
+          <t>161497</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>88,06%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>94,9%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>247</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>180561</t>
+          <t>155630</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>168692</t>
+          <t>148916</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>184172</t>
+          <t>161061</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>91,31%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>497</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>403921</t>
+          <t>312457</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>385510</t>
+          <t>303193</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>412946</t>
+          <t>320018</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>91,73%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>89,01%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>93,95%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12646</t>
+          <t>12110</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6093</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27756</t>
+          <t>18884</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84149</t>
+          <t>13896</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15671</t>
+          <t>8669</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>196015</t>
+          <t>21036</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>62,34%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>43</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>96795</t>
+          <t>26005</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>27058</t>
+          <t>19474</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>246495</t>
+          <t>35919</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>9,12%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>216722</t>
+          <t>170103</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>201612</t>
+          <t>163329</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>223275</t>
+          <t>174666</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,9%</t>
+          <t>89,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>292</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>230279</t>
+          <t>197582</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>118413</t>
+          <t>190442</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>298757</t>
+          <t>202809</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>73,24%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>561</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>447001</t>
+          <t>367685</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>297301</t>
+          <t>357771</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>516738</t>
+          <t>374216</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>82,2%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>95,05%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>604</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14466</t>
+          <t>15231</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7841</t>
+          <t>9840</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23725</t>
+          <t>23098</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19661</t>
+          <t>13768</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13668</t>
+          <t>9148</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>28926</t>
+          <t>22125</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>34127</t>
+          <t>28999</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>24620</t>
+          <t>21327</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>45047</t>
+          <t>38497</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>7,75%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>296303</t>
+          <t>233082</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>287044</t>
+          <t>225215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>302928</t>
+          <t>238473</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>383</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>302952</t>
+          <t>234883</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>293687</t>
+          <t>226526</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>308945</t>
+          <t>239503</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>750</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>599254</t>
+          <t>467965</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>588334</t>
+          <t>458467</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>608761</t>
+          <t>475637</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>95,71%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15753</t>
+          <t>7120</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4019</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30959</t>
+          <t>12521</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23597</t>
+          <t>18771</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17012</t>
+          <t>12223</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>31372</t>
+          <t>26525</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>43</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>39350</t>
+          <t>25891</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>19308</t>
+          <t>18510</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>58512</t>
+          <t>34379</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,97%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>472</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>611411</t>
+          <t>289887</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>596205</t>
+          <t>284486</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>623145</t>
+          <t>293254</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>427</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>381205</t>
+          <t>260204</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>373430</t>
+          <t>252450</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>387790</t>
+          <t>266752</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,17%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>899</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>992616</t>
+          <t>550092</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>973454</t>
+          <t>541604</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1012658</t>
+          <t>557473</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>96,79%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4148</t>
+          <t>6151</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9201</t>
+          <t>11246</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16031</t>
+          <t>19839</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10770</t>
+          <t>14076</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>22930</t>
+          <t>27029</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>45</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>20179</t>
+          <t>25989</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>13875</t>
+          <t>18371</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>27680</t>
+          <t>33762</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>6,91%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>334981</t>
+          <t>228549</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>329928</t>
+          <t>223454</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>337501</t>
+          <t>231570</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>383</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>302863</t>
+          <t>234257</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>295964</t>
+          <t>227067</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>308124</t>
+          <t>240020</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>89,36%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>743</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>637845</t>
+          <t>462807</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>630344</t>
+          <t>455034</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>644149</t>
+          <t>470425</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>96,24%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5803</t>
+          <t>6962</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11055</t>
+          <t>10445</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11645</t>
+          <t>8313</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2737</t>
+          <t>5447</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>24274</t>
+          <t>12347</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>17449</t>
+          <t>15275</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>6326</t>
+          <t>11556</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>29032</t>
+          <t>20081</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>547</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>202281</t>
+          <t>177086</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>197029</t>
+          <t>173603</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>205434</t>
+          <t>179643</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>461</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>440997</t>
+          <t>180361</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>428368</t>
+          <t>176327</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>449905</t>
+          <t>183227</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>643278</t>
+          <t>357448</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>631695</t>
+          <t>352642</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>654401</t>
+          <t>361167</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>96,9%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>486</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3048</t>
+          <t>4880</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>3089</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>8221</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>11061</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>5351</t>
+          <t>7282</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>13741</t>
+          <t>16031</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>11937</t>
+          <t>15941</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>7301</t>
+          <t>11551</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>17535</t>
+          <t>21644</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>6,04%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>464</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>148237</t>
+          <t>141653</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>144616</t>
+          <t>138312</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>150087</t>
+          <t>143444</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>499</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>224385</t>
+          <t>200759</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>219532</t>
+          <t>195789</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>227922</t>
+          <t>204538</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>963</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>372621</t>
+          <t>342412</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>367023</t>
+          <t>336709</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>377257</t>
+          <t>346802</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>96,78%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>68740</t>
+          <t>65798</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>45877</t>
+          <t>55148</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>95111</t>
+          <t>79349</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>188</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>167764</t>
+          <t>100458</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>92357</t>
+          <t>85317</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>381578</t>
+          <t>115918</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>318</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>236505</t>
+          <t>166256</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>156818</t>
+          <t>148693</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>454657</t>
+          <t>186762</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>6,17%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1830</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2033295</t>
+          <t>1397188</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2006924</t>
+          <t>1383637</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2056158</t>
+          <t>1407838</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2853</t>
+          <t>2692</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2063242</t>
+          <t>1463679</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1849428</t>
+          <t>1448219</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2138649</t>
+          <t>1478820</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>82,9%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>5421</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4096536</t>
+          <t>2860866</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3878384</t>
+          <t>2840360</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4176223</t>
+          <t>2878429</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>89,51%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>95,09%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4903</t>
+          <t>5739</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para la alergía o el asma en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6704,107 +6704,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13344</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8674</t>
+          <t>748</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20316</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14812</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9381</t>
+          <t>612</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>21526</t>
+          <t>2841</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>28156</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>20595</t>
+          <t>1756</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>37420</t>
+          <t>4947</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -6817,107 +6817,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>156827</t>
+          <t>75293</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>149855</t>
+          <t>73753</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>161497</t>
+          <t>76133</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,06%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>340</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>155630</t>
+          <t>64797</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>148916</t>
+          <t>63401</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>161061</t>
+          <t>65630</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,31%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>708</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>312457</t>
+          <t>140089</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>303193</t>
+          <t>138176</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>320018</t>
+          <t>141367</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,01%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>98,77%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7047,107 +7047,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12110</t>
+          <t>1834</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7547</t>
+          <t>899</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18884</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13896</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8669</t>
+          <t>1727</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21036</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>26005</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>19474</t>
+          <t>3168</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>35919</t>
+          <t>6883</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -7160,107 +7160,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>387</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>170103</t>
+          <t>73149</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>163329</t>
+          <t>71630</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>174666</t>
+          <t>74084</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>98,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>350</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>197582</t>
+          <t>65202</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>190442</t>
+          <t>63652</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>202809</t>
+          <t>66321</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>737</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>367685</t>
+          <t>138351</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>357771</t>
+          <t>136148</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>374216</t>
+          <t>139863</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>96,73%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>97,79%</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,107 +7390,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15231</t>
+          <t>2792</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9840</t>
+          <t>1519</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23098</t>
+          <t>4988</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13768</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9148</t>
+          <t>2412</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22125</t>
+          <t>5751</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>28999</t>
+          <t>6516</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>21327</t>
+          <t>4544</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>38497</t>
+          <t>8891</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>4,14%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>233082</t>
+          <t>101168</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>225215</t>
+          <t>98972</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>238473</t>
+          <t>102441</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>558</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>234883</t>
+          <t>106990</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>226526</t>
+          <t>104964</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>239503</t>
+          <t>108303</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>96,64%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1112</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>467965</t>
+          <t>208159</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>458467</t>
+          <t>205784</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>475637</t>
+          <t>210131</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>97,88%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7120</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3753</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12521</t>
+          <t>7601</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18771</t>
+          <t>7910</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12223</t>
+          <t>5648</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26525</t>
+          <t>10839</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>25891</t>
+          <t>13140</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>18510</t>
+          <t>10513</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>34379</t>
+          <t>16084</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,41%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>773</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>289887</t>
+          <t>139548</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>284486</t>
+          <t>137177</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>293254</t>
+          <t>141208</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>767</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>260204</t>
+          <t>144634</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>252450</t>
+          <t>141705</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>266752</t>
+          <t>146896</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,49%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>1540</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>550092</t>
+          <t>284181</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>541604</t>
+          <t>281237</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>557473</t>
+          <t>286808</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,46%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,107 +8076,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6151</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11246</t>
+          <t>5505</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19839</t>
+          <t>5903</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14076</t>
+          <t>4059</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>27029</t>
+          <t>8535</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>54</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>25989</t>
+          <t>9395</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>18371</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>33762</t>
+          <t>12927</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>712</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>228549</t>
+          <t>126090</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>223454</t>
+          <t>124077</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>231570</t>
+          <t>127445</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>826</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>234257</t>
+          <t>146012</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>227067</t>
+          <t>143380</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>240020</t>
+          <t>147856</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,36%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>1538</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>462807</t>
+          <t>272103</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>455034</t>
+          <t>268571</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>470425</t>
+          <t>274375</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>97,47%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,107 +8419,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6962</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4405</t>
+          <t>2593</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10445</t>
+          <t>5848</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4373</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2957</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6410</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>3,78%</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>2,39%</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>5,68%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>8313</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>5447</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>12347</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>4,41%</t>
-        </is>
-      </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>15275</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>11556</t>
+          <t>6385</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>20081</t>
+          <t>10927</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>616</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>177086</t>
+          <t>100286</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>173603</t>
+          <t>98618</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>179643</t>
+          <t>101873</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>96,0%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>94,4%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>97,52%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>111407</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>109370</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>112823</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
           <t>96,22%</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>94,32%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>97,61%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>180361</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>176327</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>183227</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>95,59%</t>
-        </is>
-      </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>357448</t>
+          <t>211693</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>352642</t>
+          <t>209319</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>361167</t>
+          <t>213861</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>97,1%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,37 +8762,37 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4880</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3089</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8221</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -8802,67 +8802,67 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>11061</t>
+          <t>5182</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7282</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>16031</t>
+          <t>7403</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>15941</t>
+          <t>8164</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>11551</t>
+          <t>6068</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>21644</t>
+          <t>11137</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>5,03%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>537</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>141653</t>
+          <t>86241</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>138312</t>
+          <t>84620</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>143444</t>
+          <t>87425</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>777</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>200759</t>
+          <t>127130</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>195789</t>
+          <t>124909</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>204538</t>
+          <t>128779</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>342412</t>
+          <t>213371</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>336709</t>
+          <t>210398</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>346802</t>
+          <t>215467</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>97,26%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>65798</t>
+          <t>22098</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>55148</t>
+          <t>18265</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>79349</t>
+          <t>26414</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>181</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>100458</t>
+          <t>31385</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>85317</t>
+          <t>26437</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>115918</t>
+          <t>36637</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>312</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>166256</t>
+          <t>53483</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>148693</t>
+          <t>47273</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>186762</t>
+          <t>59667</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1397188</t>
+          <t>701774</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1383637</t>
+          <t>697458</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1407838</t>
+          <t>705607</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2692</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1463679</t>
+          <t>766171</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1448219</t>
+          <t>760919</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1478820</t>
+          <t>771119</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5421</t>
+          <t>8241</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2860866</t>
+          <t>1467946</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2840360</t>
+          <t>1461762</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2878429</t>
+          <t>1474156</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>96,89%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
